--- a/public/file/template/Surat Undangan.xlsx
+++ b/public/file/template/Surat Undangan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\admum\public\file\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3443CC-00E5-41AD-B10C-FAC42096A290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C47FFC9-9ACA-4290-8900-1C5A9FC38537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FD95A270-0799-465A-A9E9-70AB4C3EFF5C}"/>
   </bookViews>
@@ -75,16 +75,7 @@
     <t>Atas perhatian dan kehadirannya kami sampaikan terima kasih</t>
   </si>
   <si>
-    <t>Plt. Kepala Badan Pusat Statistik</t>
-  </si>
-  <si>
     <t>Kabupaten Batang</t>
-  </si>
-  <si>
-    <t>Ali Abrori, S.Si</t>
-  </si>
-  <si>
-    <t>NIP. : 197207241994121001</t>
   </si>
   <si>
     <r>
@@ -132,6 +123,15 @@
   </si>
   <si>
     <t>Batang, 26 September 2023</t>
+  </si>
+  <si>
+    <t>Kepala Badan Pusat Statistik</t>
+  </si>
+  <si>
+    <t>Heni Djumadi, S.ST</t>
+  </si>
+  <si>
+    <t>NIP. :  197105071993121001</t>
   </si>
 </sst>
 </file>
@@ -667,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2335B7B4-BEBB-4179-9FF8-0EB42B600348}">
   <dimension ref="A2:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29:H35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -710,7 +710,7 @@
         <v>3</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -749,7 +749,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -763,7 +763,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -820,12 +820,12 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H29" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H30" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -839,17 +839,17 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H34" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H35" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -863,7 +863,7 @@
     </row>
     <row r="44" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
